--- a/SPPSApi/Doc/Template/FS1202_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1202_Import.xlsx
@@ -53,7 +53,7 @@
     <definedName name="kose">#REF!</definedName>
     <definedName name="LISTとPGMALLとの差分">#REF!</definedName>
     <definedName name="PJTBL">[3]マスター!$E$3:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FS0120.ImporProCondition!$A$1:$R$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FS0120.ImporProCondition!$A$1:$R$30</definedName>
     <definedName name="_xlnm.Print_Titles">#REF!</definedName>
     <definedName name="q">#REF!</definedName>
     <definedName name="Q_C3M00プロジェクトタイムライン">#REF!</definedName>
@@ -145,7 +145,7 @@
     <definedName name="障害票ツール区分">#REF!</definedName>
     <definedName name="重要度">[4]基本情報!$L$17:$M$66</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="114210" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -209,12 +209,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3683,7 +3685,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
